--- a/datasets/acme_spd/questions/ACME_SPD_Questions_Micro.xlsx
+++ b/datasets/acme_spd/questions/ACME_SPD_Questions_Micro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RAG_Tester\acme_spd\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shthanka.ORADEV\Oracle Content\Gen AI\rag_tester_llidx\datasets\acme_spd\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B23CAE30-6B6C-4E9B-B1FC-2F057DB1612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB17A805-8108-430C-95E9-20F7A6E8FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="456" windowWidth="21948" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="2220" windowWidth="28005" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="292">
   <si>
     <t>assessment</t>
   </si>
@@ -33,45 +33,111 @@
     <t>what do you cover for chemotherapy</t>
   </si>
   <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
     <t>Does the plan pay for condoms</t>
   </si>
   <si>
+    <t>Condoms and spermicidal agents are not Covered Health Services because they are available without a prescription</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
     <t>is root canal covered by United</t>
   </si>
   <si>
     <t>are scooters covered</t>
   </si>
   <si>
+    <t xml:space="preserve">Coverage for scooters is covered under the Plan as Durable Medical Equipment, if each of the following criteria is met:
+- It is determined that, due to sickness or accidental injury, the Covered Person requires the use of a scooter, 
+- A Physician certifies the scooter will serve a medical purpose;
+- The scooter will be subject to the maximum benefit provisions for DME; 
+- Prior Authorization will determine and approve purchase or rental of scooter;
+- To receive Network benefits, the Covered Person must purchase or rent the approved scooter from the recommended UnitedHealthcare vendor. </t>
+  </si>
+  <si>
     <t>are abortions and vasectomies covered</t>
   </si>
   <si>
+    <t xml:space="preserve">Family Planning Benefits are payable for: 
+- A vasectomy for voluntary sterilization
+- Legal abortions (includes therapeutic and elective). </t>
+  </si>
+  <si>
     <t>are hearing aids covered</t>
   </si>
   <si>
+    <t>Yes, benefits are available for a hearing aid that is purchased through a licensed audiologist, hearing aid dispenser, otolaryngologist or other authorized provider. Benefits are also provided for certain over-the-counter hearing aids for Covered Persons age 18 and older who have mild to moderate hearing loss. Benefits are limited to a single purchase (including repair/replacement) per hearing impaired ear and is once every three years.</t>
+  </si>
+  <si>
     <t>my child is showing signs of delayed development, what services are covered</t>
   </si>
   <si>
     <t>will you pay to fix my broke-ass son's gambling habit</t>
   </si>
   <si>
+    <t>Outside of initial assessment, services as treatments for the primary diagnoses of learning disabilities, pyromania, kleptomania, gambling disorder, and paraphilic disorders  are excluded from coverage</t>
+  </si>
+  <si>
     <t>I'd like to donate bone marrow. Will the expenses be covered ?</t>
   </si>
   <si>
+    <t>The company's benefits document does not provide specific information about coverage for bone marrow donation. It mentions that health services connected with the removal of an organ or tissue for the purpose of a transplant to another person are covered through the organ recipient's medical coverage. However, it's best to contact UnitedHealthcare or the number on your ID card for more specific information.</t>
+  </si>
+  <si>
     <t>are contact lenses covered by the united plan</t>
   </si>
   <si>
+    <t>Contact lenses are excluded by the United Health Plan.
+However, contact lenses are covered by Vision Service Plan (VSP). 
+Vision Plan I allows you to obtain glasses or contacts once every calendar year 
+Vision Plan II allows you to obtain them twice every calendar year and provides a higher level of coverage for frames or elective contact lenses.</t>
+  </si>
+  <si>
     <t>for how long is blood storage covered</t>
   </si>
   <si>
+    <t>Blood storage is covered for short term, which is less than 30 days. Long term storage of blood, which is more than 30 days, is not covered.</t>
+  </si>
+  <si>
     <t>i received a bill from my provider. what should i do</t>
   </si>
   <si>
+    <t xml:space="preserve">UnitedHealthcare will pay Network Providers directly for Covered Health Services. 
+If a Network Provider bills you for any Covered  Health Service, contact UnitedHealthcare at the number on Your ID card. 
+However, you are responsible for paying Copayments, Deductibles, or Coinsurance to a Network Provider at the time of service, or when You receive a bill from the Provider. 
+When You receive a Covered Health Service from a Non-Network Provider, you are responsible for requesting payment from UnitedHealthcare. </t>
+  </si>
+  <si>
     <t>what is the maximum life insurance coverage i can get</t>
   </si>
   <si>
+    <t>The combined pre-tax ($50,000) and after-tax ($2,500,000) maximum life insurance amount is $2,550,000</t>
+  </si>
+  <si>
     <t>what is the contact info to send COBRA notics</t>
   </si>
   <si>
+    <t xml:space="preserve">The address is 
+ COBRA ADMINISTRATOR  
+ BenefitConnect COBRA 	 
+ PO Box 981915 	 	 
+ El Paso, TX 79998   	 
+ 1-877-29-COBRA (1-877-292-6272)  
+ (858-314-5108 International only)  </t>
+  </si>
+  <si>
+    <t>For sending a COBRA notice, you should contact the WTW Service Center. The address to send the COBRA notice is:
+WTW Service Center  
+DEPT: QQP  
+PO Box 981924  
+El Paso, TX 79998  
+You can also call them at 1-855-481-2661 for further assistance regarding your COBRA notice【22:5†source】.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are bifocals covered </t>
   </si>
   <si>
@@ -90,6 +156,9 @@
     <t>Is laser surgery covered by VSP</t>
   </si>
   <si>
+    <t>The document indicates that surgery and other related treatment intended to correct nearsightedness, farsightedness, presbyopia, and astigmatism, including but not limited to procedures such as radial keratotomy, laser, and other refractive eye surgeries, are covered under the vision plan through the Vision Service Plan (VSP). Therefore, laser surgery for vision correction is indeed covered</t>
+  </si>
+  <si>
     <t>What coverage do you offer for life dental and vision</t>
   </si>
   <si>
@@ -141,12 +210,24 @@
     <t>does united provide diabetes management coverage'</t>
   </si>
   <si>
+    <t>Yes, UnitedHealthcare provides coverage for diabetes management. The document mentions a specific program called Diabetes Management Plus through Livongo, which is part of UnitedHealthcare's Health Advocacy and Support Programs. This program is designed to support individuals with diabetes, offering resources and tools to help manage the condition. The inclusion of such a program indicates UnitedHealthcare's commitment to providing comprehensive care and support for members with diabetes, covering aspects of disease management that can include education, monitoring, and personalized care plans【136†source】.</t>
+  </si>
+  <si>
     <t>does kaiser offer diabetes management help</t>
   </si>
   <si>
+    <t>The document doesn't provide specific details about Kaiser Permanente's offerings related to diabetes management within the provided section</t>
+  </si>
+  <si>
     <t>what servcies are provided for stress management and how much does it cost</t>
   </si>
   <si>
+    <t>The document highlights the availability of stress management services under the Employee Assistance Program (EAP) offered as part of the health benefits. EAP services include support for dealing with stress, among other personal and work-related issues. Here's what is covered:
+- **EAP Services**: Include confidential counseling and support for a variety of issues, including stress management, work-life balance, and mental health concerns.
+- **Cost**: EAP benefits and services are provided at no cost to employees, dependents, and other qualified members of the employee's household.
+The EAP is designed to offer immediate, confidential help and support for a wide range of personal and professional challenges, providing access to professional counseling services that can help with stress management and other concerns. Since these services are part of the EAP benefits, they are available without additional charges to eligible individuals【140†source】.</t>
+  </si>
+  <si>
     <t>what is your autism coverage</t>
   </si>
   <si>
@@ -165,6 +246,9 @@
     <t>how often can i take a mammogram</t>
   </si>
   <si>
+    <t>Mammogram screenings for the presence of breast cancer may be done at intervals established by the American College of Obstetrics and Gynecologists. Additionally, if you have a family history of breast cancer, mammograms will be covered on a more frequent basis, regardless of your age, when prescribed by your physician. It's advised that you contact your physician if you believe you qualify for more frequent intervals</t>
+  </si>
+  <si>
     <t>Do you pay for a midwife</t>
   </si>
   <si>
@@ -174,6 +258,16 @@
     <t>what coverage do you have for treating obesity</t>
   </si>
   <si>
+    <t>The plan covers surgical treatment of obesity provided by or under the direction of a physician if either of the following is true:
+- You have a minimum Body Mass Index (BMI) of 40.
+- You have a minimum BMI of 35 with at least one complicating coexisting medical condition or disease present (such as sleep apnea or diabetes).
+In addition to meeting the above criteria, the following must also be true:
+- You have documentation from a physician of a diagnosis of morbid obesity for a minimum of two years.
+- You are age 18 or older or for adolescents, have achieved greater than 95% of estimated adult height AND a minimum Tanner Stage of 4.
+Please note that prior authorization is required for obesity surgery. 
+However, nutritional counseling for obesity and/or weight loss is not covered under this plan.</t>
+  </si>
+  <si>
     <t>is dental surgery covered</t>
   </si>
   <si>
@@ -186,6 +280,12 @@
     <t>how can I get refills for my arthritis medication</t>
   </si>
   <si>
+    <t>To get refills on your arthritis medication, you're encouraged to use the OptumRx's "Mail Service Member Select Program" if your medication qualifies as a Maintenance Medication. This program allows you to fill a 90-day supply of covered Maintenance Medication through the plan's Mail Service Member Select Program. Medication, including instructions for obtaining refills, will arrive by mail approximately 14 days after the order is received, and there is no charge for shipping/mailing. The plan pays mail order benefits for covered Maintenance Medications for up to a consecutive 90-day supply, as prescribed by a physician.
+Before your third medication fill, you must either enroll in the Mail Service Member Select Program or opt-out and continue filling Maintenance Medication(s) at a Network retail pharmacy. Failing to "Enroll" or "Dis-Enroll" before your third medication fill may result in having to pay 100% of the medication's retail cost until you take action.
+To enroll in the Mail Service Member Select Program, you can access www.myuhc.com, go to "Manage My Prescriptions," and then to "Savings Center" or click on the medication in your dashboard you want to transfer to home delivery and follow the transfer instructions. Alternatively, you can enroll via the UHC app or by calling UnitedHealthcare at the toll-free number located on the back of your ID card.
+For Specialty Medications, including those for conditions such as arthritis, a designated OptumRx Specialty Pharmacy must be used starting from the first fill. There is no grace period allowing the initial Specialty Medication fill at a retail pharmacy</t>
+  </si>
+  <si>
     <t>how often can i replace my artificial leg. what about fixing any damage - is this covered</t>
   </si>
   <si>
@@ -219,6 +319,9 @@
     <t>i got a bill from an out of network provider. how much time do i have to file a claim</t>
   </si>
   <si>
+    <t>For services received from an out-of-network provider, you must submit a request for payment of benefits within one year after the date of the service. If the information is not provided to UnitedHealthcare within one year of the date of service, benefits for that health service will be denied or reduced at UnitedHealthcare’s discretion. The time limit does not apply if you are legally incapacitated</t>
+  </si>
+  <si>
     <t>what do you cover for orthodontic services</t>
   </si>
   <si>
@@ -228,6 +331,9 @@
     <t>how much do ypu pay for fillings</t>
   </si>
   <si>
+    <t>Fillings are covered under the Basic Services category, and they are covered at 80% of the Preferred Dental Program (PDP) rate for network providers or Reasonable &amp; Customary (R&amp;C) rate for non-network providers, after the deductible has been met. This coverage applies up to a combined annual maximum of $2,500 for Basic and Major Services</t>
+  </si>
+  <si>
     <t>how much do you pay for crown repairs</t>
   </si>
   <si>
@@ -237,42 +343,69 @@
     <t>how much do you pay to replace orthodontics</t>
   </si>
   <si>
+    <t>The plan does not cover the costs for replacing lost, missing, or stolen orthodontic appliances For other scenarios not specified by these conditions, such as medically necessary replacements not due to loss, theft, or misplacement, you might need to consult your plan details or contact your plan administrator for specific coverage information and any associated costs.</t>
+  </si>
+  <si>
     <t>how often can I replace my contacts</t>
   </si>
   <si>
     <t>Do you pay for contact lens solution</t>
   </si>
   <si>
+    <t>The coverage for contact lens solution and miscellaneous supplies is specifically excluded from the vision plan. This means the costs associated with purchasing contact lens solution and other similar supplies are not covered and would be an out-of-pocket expense for you</t>
+  </si>
+  <si>
     <t>i did not enroll for life during the last enrollment. Do i have any insurance coverage</t>
   </si>
   <si>
+    <t>If you did not actively enroll in life insurance coverage during the last enrollment period, you would still have default coverage. The default life insurance coverage provided to newly eligible employees who do not make an election during their enrollment period includes a pre-tax life insurance coverage of $10,000 . This coverage is automatically applied if no active elections are made during the designated enrollment period .</t>
+  </si>
+  <si>
     <t>is my accident insurance deduction before tax</t>
   </si>
   <si>
     <t>i now have a newborn son. can i increase my life insurance</t>
   </si>
   <si>
+    <t>The birth of a newborn son is considered a Qualified Family Status Change (QFSC), which allows you to make changes to your Life and AD&amp;D insurance coverage. You can increase your Life and AD&amp;D insurance coverage by one level without medical review during the Open Enrollment period or if you have a Qualified Family Status Change that permits Life/AD&amp;D changes. However, you cannot increase your coverage by more than one level during a single Open Enrollment period or permissible Qualified Family Status Change event. If you wish to increase your coverage by more than one level, you will need to do so over multiple Open Enrollment periods or QFSC events</t>
+  </si>
+  <si>
     <t>what is the max disability i can get</t>
   </si>
   <si>
     <t>i am legally separated. will my spouse get COBRA ad for how long</t>
   </si>
   <si>
+    <t>Your legally separated spouse is entitled to elect COBRA coverage if they lose their group health coverage under the plan because of the legal separation. COBRA coverage under the plan's group health components can last for up to a total of 36 months following the event of legal separation</t>
+  </si>
+  <si>
     <t>is chiropractic covered</t>
   </si>
   <si>
+    <t>Partial</t>
+  </si>
+  <si>
     <t>do you pay for medical expenses incurred abroad</t>
   </si>
   <si>
     <t>Do you cover fentanyl abuse</t>
   </si>
   <si>
+    <t>The UnitedHealthcare Medical Plans cover effective treatment of alcohol or drug abuse, which is prescribed and supervised by a Physician. It would be best to contact UnitedHealthcare directly for specific information about fentanyl abuse coverage.</t>
+  </si>
+  <si>
     <t>will you pay for a knee MRI</t>
   </si>
   <si>
+    <t>Yes, the plan covers services for MRI when received on an outpatient basis at a Hospital or Alternate Facility. However, it's important to note that prior authorization is required for MRI. The benefits include the facility charge, the charge for supplies and equipment, and physician services for radiologists, anesthesiologists, and pathologists. If the MRI is performed in a Physician's office, the benefits are described under Physician's Office Services.</t>
+  </si>
+  <si>
     <t>is liposuction covered</t>
   </si>
   <si>
+    <t>Liposuction or removal of fat deposits considered undesirable is generally not covered. However, the exclusion does not apply to liposuction for which benefits are provided as described under Reconstructive Procedures.</t>
+  </si>
+  <si>
     <t>how soon will i get approval for a service. Give me a detailed answer</t>
   </si>
   <si>
@@ -286,6 +419,33 @@
   </si>
   <si>
     <t>expected_answer</t>
+  </si>
+  <si>
+    <t>No, your partner cannot be covered under your dental insurance if you do not live together. One of the eligibility requirements for a Qualified Domestic Partner is that you share the same principal residence and are mutually responsible for your financial obligations.</t>
+  </si>
+  <si>
+    <t>Yes, emergency ground ambulance transportation provided by a Non-Network Provider is covered. The Eligible Expense, which includes mileage, is a rate agreed upon by the Non-Network Provider or, unless a different amount is required by applicable law, determined based on the median amount negotiated with Network Providers for the same or similar service. However, Non-Network Providers may bill you for any difference between the Provider’s billed charges and the Eligible Expense.</t>
+  </si>
+  <si>
+    <t>Yes, UnitedHealthcare provides Diabetes Management Plus through Livongo to members with Type 1 or Type 2 diabetes. The program offers personalized support to help members understand their blood sugar, develop healthy lifestyle habits, improve glycemic control, and offers additional support for comorbidities. The program includes connected devices for monitoring and real-time feedback, as well as coaching support from credentialed and experienced coaches.</t>
+  </si>
+  <si>
+    <t>Yes, you can see a psychiatrist for Autism Spectrum Disorders. The treatment should be provided by or under the direction of an experienced psychiatrist and/or an experienced licensed psychiatric provider. The focus of the treatment should be on addressing maladaptive and stereotypic behaviors that pose danger to self, others, or property, and cause impairment in daily functioning.</t>
+  </si>
+  <si>
+    <t>Yes, chiropractic services, specifically spinal manipulation, are covered under the plan. The plan covers both maintenance and non-maintenance related services up to the maximum number of visits specified in the Medical Plan Comparison Chart. If the maximum number of visits is reached, additional benefits for the calendar year will only be available if the treatment and/or services are covered health services and not maintenance related. For these additional benefits, the provider must submit chart notes or progress reports to UnitedHealthcare for review. If UnitedHealthcare determines the treatment and/or services are appropriate, and progress is being made, additional benefits will be made available.</t>
+  </si>
+  <si>
+    <t>The plan does not cover prescription drugs that contain marijuana, including medical marijuana. However, it does cover FDA-approved drugs that contain a purified drug substance derived from marijuana, such as Epidiolex, but prior authorization is required.</t>
+  </si>
+  <si>
+    <t>The cost coverage for crown repairs depends on the dental plan you have. Under Dental Plan I, it is covered at 50% of PDP or R&amp;C after the deductible, up to $2,500 per calendar year. Under Dental Plan II, it is covered at 80% of PDP or R&amp;C after the deductible, up to $2,500 per calendar year.</t>
+  </si>
+  <si>
+    <t>Yes, your accidental death &amp; dismemberment (AD&amp;D) insurance deduction is made using pre-tax dollars.</t>
+  </si>
+  <si>
+    <t>The Employee Assistance Program (EAP) offers resources to help with stress management. Services include confidential in-person counselling and online resources, articles, information and tools. You can access ten in-person counselling sessions per concern per calendar year, at no cost to you. Phone lines are open 24 hours a day, seven days a week.</t>
   </si>
   <si>
     <t>ACME_UTD_SPD_001</t>
@@ -565,6 +725,11 @@
 If you fall within these categories, you are eligible to participate in the plan. Interns and temporary employees are not eligible as they are not considered regular employees of ACME</t>
   </si>
   <si>
+    <t>The document specifies that eligible dependents may be covered by the life insurance options under the plan when the dependent meets one of the eligibility requirements listed. For a partner to be covered under life insurance, they would typically need to qualify as an eligible dependent. The document outlines specific criteria for eligible spouses and qualified domestic partners, indicating that coverage could extend to these individuals based on their relationship with the employee.
+To cover a partner under life insurance, they would need to fall into one of the categories of eligible dependents, such as a legally recognized spouse or a qualified domestic partner. The document provides detailed criteria for what constitutes a qualified domestic partner, including aspects like sharing the same principal residence, being mutually responsible for each other's common welfare, and not being legally married to someone else.
+If your partner meets the criteria outlined for a qualified domestic partner or if you are legally married, you may be able to enroll them in the life insurance coverage offered under the plan, subject to the plan's terms and conditions. It's important to review the specific eligibility requirements and coverage details as outlined in the ACME America Inc. Flexible Benefit Plan document to understand the options available for covering your partner under life insurance</t>
+  </si>
+  <si>
     <t>Yes, you can cover your disabled daughter who is 30 years old under the ACME America Inc. Flexible Benefit Plan. The document specifies that your child may continue coverage beyond age 26 if he or she is disabled. The plan includes provisions for disabled dependent children, allowing them to remain eligible for medical, dental, vision, and life insurance coverage under certain conditions:
 - The child becomes permanently and totally disabled prior to age 26.
 - Medical certification confirms the child is unable to engage in any substantial gainful activity due to a physical handicap or mental impairment.
@@ -575,6 +740,9 @@
 This provision ensures that disabled dependents who meet these criteria can maintain their coverage even after the typical age limit for dependents. You should consult with your benefits administrator or refer to your plan documents to understand the specific process for certifying your daughter's disability status and to ensure continued coverage</t>
   </si>
   <si>
+    <t>Yes, you and your wife, both being employees of ACME, can add each other as beneficiaries to your respective life insurance plans. However, you cannot be enrolled as both an employee and a dependent at the same time.</t>
+  </si>
+  <si>
     <t>If you missed the enrollment window for the ACME America Inc. Flexible Benefit Plan, the document specifies that you will be automatically enrolled in the default coverage. The default coverage for newly eligible employees who do not complete their enrollment during the designated period includes:
 - **UnitedHealthcare HSA Medical Plan (Employee Only)**: You will be enrolled in this high deductible health plan.
 - **Life Insurance**: $10,000 pre-tax coverage.
@@ -583,7 +751,110 @@
 It's important to note that this default coverage does not include coverage for your eligible dependents (spouse, qualified domestic partner, and children), dental insurance, vision insurance, or Health/Dependent Care Flexible Spending Accounts (FSA). You will need to wait until the next annual Open Enrollment period or experience a Qualified Family Status Change to make any changes to your benefits or to add coverage for your dependents</t>
   </si>
   <si>
+    <t>Yes, if your marriage annulment has been finalized, you can make changes to your life insurance, such as removing your former spouse from your coverage. The document specifies that experiencing a Qualified Family Status Change (FSC), such as marriage, divorce, or annulment, allows you to make changes to your benefits elections outside of the Open Enrollment period. Annulment qualifies as a change in your marital status, which is a recognized FSC.
+To remove your spouse from your life insurance following an annulment, you must:
+- Report the annulment to ACME US Benefits.
+- Make the desired changes to your benefits within 62 days of the annulment's finalization.
+This procedure ensures that benefits changes are consistent with the FSC event, allowing for the adjustment of coverage in accordance with your current marital status. Remember, the effective date of the benefits changes you submit may vary but will generally align with either the date of the FSC or the date your election is submitted</t>
+  </si>
+  <si>
+    <t>Yes, your newborn is automatically covered under the ACME America Inc. Flexible Benefit Plan. According to the document, if you give birth, your newborn child is automatically covered for the first 31 days on the UnitedHealthcare Medical Plan in which you are enrolled. To extend coverage beyond the initial 31 days, you must submit a Qualified Family Status Change and make an election to enroll your eligible child within 62 days of the birth. It's important to note that children are not covered beyond the initial 31-day period unless you add your eligible child(ren) to your plan within this timeframe</t>
+  </si>
+  <si>
+    <t>For employees residing in California, the ACME America Inc. Flexible Benefit Plan provides access to several medical plans through UnitedHealthcare, as well as options through Kaiser Permanente, specifically tailored to meet the needs of California residents. Here are the medical plans available to you:
+1. **UnitedHealthcare Plans for California Employees**:
+   - UnitedHealthcare offers various plans including the HSA Medical Plan, Premium PPO Plan, Medium PPO Plan, and the EPO Medical Plan. California employees access the UnitedHealthcare Select or Select Plus networks, which provide a wide range of healthcare providers and services tailored to meet diverse healthcare needs.
+2. **Kaiser Permanente HMO Plans**:
+   - Kaiser Permanente HMO Plans are available to California employees, offering integrated care and coverage with a focus on preventive healthcare. Kaiser Permanente provides a network of facilities and healthcare professionals to deliver comprehensive healthcare services.
+These plans are designed to cater to a wide range of healthcare needs, offering different levels of coverage, deductibles, and out-of-pocket maximums to California residents. The choice of plan depends on your healthcare needs, preferred level of coverage, and the specific healthcare providers or networks you wish to access.
+For more detailed information on each plan, including coverage details, network providers, and how to enroll, it's recommended to refer to the official ACME America Inc. Flexible Benefit Plan documents or contact the benefits administrator directly</t>
+  </si>
+  <si>
+    <t>For employees residing in Hawaii, the ACME America Inc. Flexible Benefit Plan offers the UnitedHealthcare Exclusive Provider Organization (EPO) Plan as a medical plan option. This plan is designed to cater to the unique healthcare market and provider availability in Hawaii, ensuring that ACME employees based in the state have access to comprehensive medical coverage that suits their needs</t>
+  </si>
+  <si>
+    <t>If your provider is no longer part of the UnitedHealthcare network, the ACME America Inc. Flexible Benefit Plan outlines specific procedures for continuity of care in such situations. Here’s what happens to your coverage:
+- **Continuity of Care**: If you are currently receiving treatment from a provider whose network status changes (from network to non-network) during your treatment, you may be eligible to request continued care from your current provider at the network benefit level for certain medical conditions and timeframes.
+- **Conditions Covered**: This provision applies to situations like an acute condition, a serious chronic condition, a high-risk pregnancy (or second or third trimester of pregnancy), or if you're undergoing treatment for a terminal illness. 
+- **Duration of Continuation**: Treatment by the terminated provider may continue up to 90 days for an acute condition or serious chronic condition. For a high-risk pregnancy or during the second or third trimester of pregnancy, treatment may continue until postpartum care related to the delivery is completed.
+- **Special Considerations**: Treatment may continue for a longer period if necessary for a safe transfer to another provider, as determined through consultation with the provider and authorized by UnitedHealthcare.
+It's important to contact UnitedHealthcare directly to discuss your specific situation and to understand how to proceed with continuity of care under these provisions. They will guide you through the process of continuing treatment with your current provider or transitioning to a new provider within the network, ensuring your coverage remains effective during this transition</t>
+  </si>
+  <si>
     <t>Dialysis is listed as a covered health service under the UnitedHealthcare Medical Plans provided by ACME America Inc. This means that if you are enrolled in one of these plans, the cost associated with dialysis treatments is considered a covered expense, subject to the plan's terms and conditions, such as deductibles, copayments, and coinsurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NurseLine is a toll-free telephone service that puts You in immediate contact with an experienced registered nurse any time, 24 hours a day, and seven days a week. Nurses can provide health information for routine or urgent health concerns. To use this convenient service, simply call the toll-free number on the back of Your ID card. 
+- Dial 1-866-672-2511 and when prompted, say, “Speak to a Nurse” 
+- You may also live chat with a nurse on Your computer http://www.nurselinechat.com/ACMEcorp  </t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan, provided through UnitedHealthcare, includes specific coverage for Autism Spectrum Disorder (ASD). Here are the key aspects of autism coverage as outlined in the document:
+- **Autism Spectrum Disorder (Autism) Services**: The plan covers a range of services for autism, including both medical and mental health services.
+- **Medical Services for Autism**: Includes coverage for medically necessary services related to autism. 
+- **Mental Health Services for Autism**: The plan also covers mental health services related to autism, addressing the behavioral health aspects of care for individuals with ASD.
+- **Applied Behavior Analysis (ABA)**: One of the specific services mentioned is Applied Behavior Analysis (ABA), a therapy commonly used to help individuals with autism. This therapy is designed to improve specific behaviors, such as social skills, communication, reading, and academics, as well as adaptive learning skills.
+Coverage details, including the extent of coverage for specific therapies, any caps or limits on services, and the process for accessing covered services for autism, would be further outlined in the plan's official documents. It's important to review your plan's Summary Plan Description or contact your benefits administrator for the most accurate and detailed information about autism coverage, including eligibility, provider network, and how to initiate services</t>
+  </si>
+  <si>
+    <t>The plan covers stays in a Skilled Nursing Facility/Inpatient Rehabilitation Facility as part of the post-surgery rehabilitation process. This indicates that if you require a room for rehabilitation in such a facility after surgery, it is considered a covered health service under the ACME America Inc. Flexible Benefit Plan provided through UnitedHealthcare. Coverage for stays in these facilities is subject to the plan's terms and conditions, including deductibles, copayments, coinsurance, and any specific limitations or requirements related to the length of stay or the type of rehabilitation services provided.
+For detailed information about coverage for a room in a rehabilitation facility after surgery, including how to access these services, any necessary pre-authorization, and what costs may be covered, it's recommended to review your plan documents or contact UnitedHealthcare directly. This will ensure you have accurate and up-to-date information specific to your plan and healthcare needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, root canal therapy is covered under the ACME America, Inc. Flexible Benefit Plan. It falls under the category of Basic Services and is covered at 80% of PDP (Network) or R&amp;C (Non-Network) after the deductible. The coverage is for once per tooth every 24 months.
+Also, root canal treatment is covered for accidents. Accidental Dental Services are Covered Health Services when all of the following are true: 
+- Treatment is necessary because of accidental damage; and 
+- Dental services are received from a Doctor of Dental Surgery, “D.D.S.” or Doctor of Medical Dentistry, “D.M.D”; and 
+- The dental damage is severe enough that initial contact with a Physician or dentist occurred within 72 hours of the accident; and 
+- The Physician or dentist certifies the injured tooth is a virgin or un-restored tooth, or a tooth that has no decay, no filling on more than two surfaces, no gum disease associated with bone loss, no root canal therapy, is not a dental implant, and functions normally in chewing and speech; and 
+- Treatment is for a sound and natural tooth; and 
+- Dental services are for final treatment to repair the damage and starts within three months of the “accidental event”; and treatment is completed within 12 months of the “accidental event.” </t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan, through UnitedHealthcare, provides coverage for emergency services incurred outside the United States, ensuring that members have access to necessary medical care even when traveling abroad. The plan distinguishes between emergency and non-emergency services received outside the U.S.:
+- **Emergency Services**: Covered globally, ensuring members receive necessary medical attention during urgent situations while abroad. The plan is designed to offer support and coverage for unexpected medical emergencies that require immediate care.
+- **Non-Emergency Services (Non-US)**: Non-Emergency Covered Health Services received outside of the United States are covered at the Non-Network coverage level. The applicable Non-Network Deductible and Coinsurance will apply to billed charges. The medical plans that do not cover Non-Network Covered Health Services (UnitedHealthcare EPO Plan, UnitedHealthcare Harvard Pilgrim Passport Plan, and Kaiser Permanente HMO Plans) will cover Emergency Services only – and any non-Emergency services will not be covered
+For exact details on how the plan covers medical expenses incurred abroad, including the reimbursement process, coverage limits, and how to submit claims for medical care received outside the U.S., members should refer to the plan documents or contact UnitedHealthcare directly. This ensures clarity on coverage extents and member responsibilities when accessing medical care internationall</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers cryopreservation and storage of embryos for up to 12 months. If you would like to store embryos for 2 years, the additional storage beyond the covered 12 months would not be covered under the plan</t>
+  </si>
+  <si>
+    <t>Yes, the treatment for gender dysphoria, including surgeries, is covered under the plan. However, there are certain criteria that must be met. For a child under the age of majority, these include a diagnosis of persistent and well-documented gender dysphoria by a qualified mental health professional, reasonable control of any significant medical or mental health concerns, parental consent as required by law, and the child's ability to provide an educated and informed consent for the treatment. For surgery, the child must be within a year of the age of majority, live continuously for at least 12 months in the gender role congruent with their gender identity, and complete 12 months of continuous hormone therapy appropriate for the desired gender, unless medically contraindicated. The child's parents must also sign an ACME-approved Indemnification and Hold Harmless Agreement.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan provides comprehensive hospice care coverage for terminally ill patients. This includes hospital hospice or convalescent facility for inpatient room and board and medical services and supplies for pain control and other acute and chronic symptom management. Coverage also includes psychological and dietary counseling, physical and occupational therapy, and is subject to prior authorization. Hospice care is designed to provide comfort and support services for the terminally ill, including physical, psychological, social, and spiritual care for the patient and short-term grief counseling for immediate family members. Hospice care must be recommended by a physician and received from a licensed Hospice Care Agency. The benefits are available up to a six-month Maximum Lifetime Benefit, with bereavement counseling limited to 15 visits per calendar year</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers all standard preventive immunizations recommended by the Advisory Committee on Immunization Practices without any cost share when network providers are used. This means you do not have to pay for vaccinations that are part of the standard preventive care.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers charges by a midwife when licensed and accepted under the state law. This coverage is part of the benefits for maternity care, which includes prenatal care, delivery, and postpartum care provided within 48 hours of delivery. It's important to note that prior authorization is required for these services</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan provides coverage for Obsessive-Compulsive Disorder (OCD) as part of its mental health benefits. The plan offers both inpatient and outpatient services for the diagnosis, assessment, treatment, and management of mental health conditions, including OCD. Covered services include diagnostic evaluations, treatment and/or procedures, referral services, medication management, individual, family, and group therapy, crisis intervention, partial hospitalization/day treatment, services at a residential treatment facility, and intensive outpatient treatment</t>
+  </si>
+  <si>
+    <t>Dental surgery is covered by the ACME America Inc. Flexible Benefit Plan under certain conditions:
+1. **Accidental Dental Services**: Covered health services for dental surgery are included when treatment is necessary due to accidental damage. The dental services must be received from a Doctor of Dental Surgery (D.D.S.) or Doctor of Medical Dentistry (D.M.D.), and initial contact with a physician or dentist must occur within 72 hours of the accident. The treatment must be for a sound and natural tooth, and the dental services must start within three months of the accidental event and be completed within 12 months of the event.
+2. **Dental Surgery Anesthesia**: Coverage is provided for general anesthesia and associated facility charges for dental procedures when performed by or under the direction of a physician, and when the covered person meets one or more specific criteria, such as being under six years of age or having a non-dental hazardous physical condition that makes general anesthesia necessary.
+3. **Orthognathic Surgery**: Coverage includes charges for surgery required for the direct treatment of a skeletal anomaly of either the maxilla or mandible that causes a functional medical impairment. Prior authorization is required for this surgery.
+It's important to note that charges for non-accidental dental procedures, including but not limited to professional fees of the dentist, are not covered unless the dental care is required for the direct treatment of a medical condition for which benefits are available under the plan</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan document does not specifically mention CVS as a designated or network pharmacy for prescription pickup. However, the plan mentions that prescriptions filled at a non-network pharmacy are covered but may cost more than those filled at a network pharmacy. For specific information regarding CVS as a pickup location for your prescription under the ACME America Inc. Flexible Benefit Plan, it would be best to check directly with your plan provider or refer to the plan's list of network pharmacies. If CVS is part of their network, then you should be able to pick up your prescription there under the terms of your coverage</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan allows for a prescription drug fill limit of up to a 34-day supply at a retail pharmacy for outpatient prescriptions. For maintenance medications filled through the plan's mail order option, a 90-day supply is covered. This structure supports the use of the OptumRx Mail Service Pharmacy for medications taken on a regular basis, encouraging a covered person to fill a 90-day supply of a covered maintenance medication through the plan’s Mail Service Member Select Program</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan provides benefits for the replacement of prosthetic devices, including artificial legs, every three calendar years, or more frequently as medically necessary due to growth for a child under the age of 19. At UnitedHealthcare's discretion, prosthetic devices may also be covered for damage beyond repair with normal wear and tear when repair costs are less than the cost of replacement or when a change in the covered person's medical condition occurs sooner than the three-year timeframe. However, there are no benefits for repairs due to misuse, malicious damage, or gross neglect, and no benefits for replacement due to misuse, malicious damage, gross neglect, or for lost or stolen prosthetic devices.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers outpatient rehabilitation services for speech therapy, which includes treatment for disorders of speech, language, voice communication, and auditory processing resulting from conditions such as injury, stroke, cancer, congenital anomaly, autism spectrum, and/or development delay. Stuttering, when associated with developmental delay disorder, is also a covered diagnosis under speech therapy. Moreover, therapies related to developmental delay are considered a Covered Health Service, provided services are rendered by a licensed provider</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan does not explicitly cover travel expenses for first-class flights for a spouse accompanying a patient undergoing hip replacement surgery. However, the plan does provide assistance with travel and lodging expenses under specific conditions, primarily related to receiving covered health services when there's no network provider within 50 miles of the covered person's home address or if the service is performed at a designated provider located more than 50 miles away. Covered travel expenses include transportation of the covered person and one companion at the economy or coach rate, along with lodging expenses up to specified limits. The maximum lifetime limit for these travel and lodging benefits is $10,000, excluding mental health services and substance-related and addictive disorders services. It's important to note that the plan requires valid receipts for reimbursement of such charges</t>
   </si>
   <si>
     <t xml:space="preserve">The ACME UnitedHealthcare Medical Plans cover cancer chemotherapy and intravenous infusion therapy as part of their outpatient surgery diagnostic and therapeutic services. This includes coverage for various treatments and services received on an outpatient basis at a hospital or alternate facility. The plan specifies that chemotherapy for cancer treatment, as well as other diagnostic tests and therapeutic treatments, are included as covered health services.
@@ -594,19 +865,214 @@
 </t>
   </si>
   <si>
+    <t>Dolphin therapy for autism is specifically listed under the exclusions for Autism Spectrum Disorder treatments within the ACME UnitedHealthcare Medical Plans. It is categorized as one of the therapies and modalities that are not covered health services.</t>
+  </si>
+  <si>
+    <t>Rolfing is specifically listed under the Plan Exclusions for alternative treatments in the ACME UnitedHealthcare Medical Plans. This means that Rolfing, as a form of alternative treatment, is not covered under these health services</t>
+  </si>
+  <si>
+    <t>Yo, fo' shizzle, my nizzle, while the vibe of kickin' it with some medical green might sound smooth, the ACME UnitedHealthcare Medical Plans ain't layin' down the greenbacks for medical weed, ya dig? It's straight-up on the list of no-go's, not covered under the plan's exclusions for drugs. Keep it real and maybe look into what the plan does cover to keep you livin' large and in charge, without the medical mary jane, you know what I'm sayin'? Stay lit but within the limits of what's covered, cuz!</t>
+  </si>
+  <si>
+    <t>Installing a wheelchair ramp for a disabled spouse is categorized under the Plan Exclusions for the ACME UnitedHealthcare Medical Plans. Specifically, it falls under exclusions for medical supplies and appliances, indicating that such installations are not covered</t>
+  </si>
+  <si>
+    <t>Urinary catheters are not listed under the exclusions in the ACME UnitedHealthcare Medical Plans. They are actually covered as part of the plan's health services, indicating that individuals requiring urinary catheters for medical reasons can receive coverage through the plan.</t>
+  </si>
+  <si>
+    <t>Thermometers are specifically listed under the category of items that are not eligible for coverage under the Health Care Flexible Spending Account (FSA) section of the ACME UnitedHealthcare Medical Plans. This implies that expenses for thermometers are not covered or reimbursable under these plans.</t>
+  </si>
+  <si>
+    <t>Yes, both cranial bands and orthotics for diabetes are covered under the ACME America, Inc. Flexible Benefit Plan. Cranial orthotic devices are covered as a reconstructive service for the treatment of craniofacial asymmetry in infants aged 3-18 months. Orthotics, including shoe orthotic and therapeutic molded shoe inserts, are covered for adults when prescribed by a physician for the treatment of severe systemic disease, such as diabetes.</t>
+  </si>
+  <si>
+    <t>The timeframe for receiving approval for a service requiring prior authorization under the ACME United Flexible Benefit Plan with UnitedHealthcare varies based on the type of claim and the urgency of the medical service needed. The process and timelines are designed to ensure that you receive timely information to proceed with the recommended medical care. Here's a detailed breakdown of the process:
+### 1. **Pre-Service Claims:**
+These are claims for services that require approval before treatment can commence. For these types of claims:
+- **Initial Notification:** UnitedHealthcare must provide you with written notice of the claim decision **within 15 days** of receipt of the claim, assuming the claim was submitted with all necessary information.
+- **Request for Additional Information:** If UnitedHealthcare determines that additional information is needed to process your claim, they will notify you within 15 days after the claim was received. They may request a one-time extension of no longer than 15 days to give you time to provide the additional required information. Once notified of the extension You then have 45 days to provide this information.
+- **Final Decision:** After receiving the additional required information, UnitedHealthcare has up to 15 days to make a final decision on your claim and notify you of the outcome. If You do not provide the needed information within the 45 days period, Your claim will be denied. 
+### 2. **Urgent Care Claims:**
+For services that are considered urgent, where a delay could seriously jeopardize the patient's life, health, or ability to regain maximum function:
+- **Rapid Response:** UnitedHealthcare is required to provide a benefit determination (approval or denial) **within 72 hours** after receiving all necessary information, taking into account the seriousness of the patient's condition.</t>
+  </si>
+  <si>
+    <t>Orthodontic services are covered under **Dental Plan II** of the ACME United Flexible Benefit Plan. This plan includes coverage for preventive, basic, major, and orthodontic services. Specifically for orthodontic services:
+- Coverage is at **50% of the Preferred Dentist Program (PDP) or Reasonable and Customary (R&amp;C) charges**.
+- There's a **lifetime maximum benefit of $2,500** for orthodontic services.
+- Orthodontic services include diagnostic procedures, surgery, and appliances.
+- Note that the replacement of lost, missing, or stolen orthodontic appliances is not covered.
+Payment for orthodontic benefits under this plan is made over the course of orthodontic treatment. For example, 20% of the orthodontia benefit is paid on the date orthodontic bands are placed, with the remainder divided over the treatment period and paid quarterly .
+If you are considering orthodontic treatment, make sure to verify your eligibility and any specific plan details or limitations by referring to your plan documents or contacting your plan administrator.</t>
+  </si>
+  <si>
+    <t>The ACME United SPD provides coverage for two teeth cleanings per calendar year under the preventive services. These services are covered at 100% of the Preferred Dental Program (PDP) for Network providers or Reasonable &amp; Customary (R&amp;C) for Non-Network providers .</t>
+  </si>
+  <si>
+    <t>The coverage for the first installation of removable dentures, as part of the major dental services, is provided at different rates under the ACME United SPD:
+- **Dental Plan I**: Covered at 50% of the Preferred Dental Program (PDP) or Reasonable &amp; Customary (R&amp;C) rate after the deductible, up to a combined annual maximum of $2,500 for Basic and Major Services.
+- **Dental Plan II**: Covered at 80% of the PDP or R&amp;C rate after the deductible, up to a combined annual maximum of $2,500 for Basic and Major Services【31:0†source】.
+This includes adjustments for the 6-month period after the dentures were installed. The coverage applies to the replacement of an existing removable denture or fixed bridgework by a new denture or the adding of teeth to a partially removable denture, provided the services meet the "Replacement Rule"</t>
+  </si>
+  <si>
+    <t>For contacts replacement frequency under the ACME United SPD, the coverage is as follows:
+- Vision Plan I allows you to obtain glasses (frame &amp; lenses) or contacts once every calendar year.
+- Vision Plan II allows you to obtain glasses (frame &amp; lenses) or contacts twice every calendar year and provides a higher level of coverage for frames or elective contact lenses</t>
+  </si>
+  <si>
+    <t>The maximum disability coverage you can choose under the ACME United plan includes two options, which you may purchase using pre-tax or after-tax dollars:
+1. **50% of Your Annual Benefits Compensation** up to a maximum monthly benefit of $12,000.
+2. **66 2/3% of Your Annual Benefits Compensation** up to a maximum monthly benefit of $18,500</t>
+  </si>
+  <si>
     <t>The document does not provide specific details regarding coverage for laser eye surgery by the Vision Service Plan</t>
   </si>
   <si>
-    <t>average_score</t>
+    <t>my wife also works at ACME. Can we add each other as beneficiaries to our Life insurance plans</t>
   </si>
   <si>
     <t>Aromatherapy is listed among the alternative treatments that are not covered by ACME's UnitedHealthcare Medical Plans. This means that services, treatments, supplies, or other items related to aromatherapy are not considered covered health services under the plan, regardless of whether they are recommended or prescribed by a provider (network and non-network) or if they are the only available treatment for your condition</t>
   </si>
   <si>
+    <t>The document does not provide specific details regarding coverage for laser eye surgery (such as LASIK) under the UnitedHealthcare Medical Plans offered by ACME America Inc. for the year 2024. Coverage for specific procedures like laser eye surgery often depends on the plan's terms, including medical necessity criteria, exclusions, and limitations. For precise information about the coverage of laser eye surgery or any specific medical procedure under UnitedHealthcare Medical Plans, it's recommended to consult the plan's official documents or contact UnitedHealthcare directly</t>
+  </si>
+  <si>
+    <t>The document outlines eligibility criteria for dependents to be covered under the ACME America Inc. Flexible Benefit Plan, including dental insurance. However, it specifies that to qualify as a dependent under the plan, certain conditions must be met. For a qualified domestic partner, criteria such as sharing the same principal residence and being mutually responsible for each other's common welfare are among the requirements listed
+Given that your partner does not live with you, it may not meet the plan's criteria for eligible dependents regarding the dental insurance coverage if these criteria strictly apply. The eligibility for dental insurance and other benefits typically requires the employee's dependents, including a qualified domestic partner, to meet specific criteria outlined in the plan documents.
+For the most accurate and personalized advice regarding your situation, it's recommended to consult the plan's official documents or contact the benefits administrator directly. They can provide guidance based on the specific terms and conditions of the ACME America Inc. Flexible Benefit Plan and your circumstances.</t>
+  </si>
+  <si>
+    <t>The document specifies that ACME employees can designate beneficiaries for their life insurance plans, allowing flexibility in choosing who will receive the benefits in the event of the employee's death. While the document does not explicitly address the scenario of ACME employees adding each other as beneficiaries, it is generally a standard practice in life insurance policies to allow the policyholder to designate any person, including a spouse, as a beneficiary.
+Since both you and your wife are employees of ACME and have the option to participate in the life insurance plan, you should be able to designate each other as beneficiaries on your respective life insurance policies. The process typically involves completing a beneficiary designation form provided by the life insurance company or through the ACME benefits administration platform.
+It's important to accurately complete and submit the beneficiary designation form to ensure that your life insurance benefits will be distributed according to your wishes in the event of your death. You may want to confirm the specific procedure and any requirements for designating beneficiaries with ACME's HR department or the life insurance provider to ensure compliance with the plan rules and to make any necessary updates to your beneficiary designations</t>
+  </si>
+  <si>
+    <t>Yes, emergency ambulance services received outside of the UnitedHealthcare network are covered under the ACME America Inc. Flexible Benefit Plan. Specifically, the document states that for Emergency Services, including ambulance services, you are covered regardless of whether the provider is within the network. This means that if you needed an emergency ambulance service and it was provided by a non-network provider, the plan still offers coverage for this service.
+The plan emphasizes that emergency services are treated as covered expenses, aiming to ensure that individuals receive the necessary care in urgent or emergency situations without the added concern of network restrictions. However, it's important to review the plan's terms for any specific conditions or limitations that might apply, such as deductibles, copayments, or coinsurance, which could affect the overall coverage of the service</t>
+  </si>
+  <si>
+    <t>Yes, you can see a psychiatrist for autism under the ACME America Inc. Flexible Benefit Plan provided through UnitedHealthcare. The plan covers mental health services for Autism Spectrum Disorder (ASD), including those provided by psychiatrists. These services are part of the comprehensive coverage offered for individuals with autism, addressing both the medical and behavioral health aspects of care.
+The plan outlines coverage for mental health services related to autism, including neurobiological disorders and substance-related and addictive disorders services. It emphasizes the provision of covered mental health services, which would include consultations, treatments, and therapies offered by psychiatrists specialized in autism and related conditions.
+For specific details about accessing psychiatric services for autism, including any provider network restrictions, pre-authorization requirements, or coverage limits, you should refer to your plan documents or contact UnitedHealthcare directly. This will ensure you have the most accurate and up-to-date information regarding your coverage and how to make use of the mental health services available to you and your dependents</t>
+  </si>
+  <si>
+    <t>Chiropractic care is included as a covered health service under the UnitedHealthcare Medical Plans provided by ACME America Inc. This means that if you are enrolled in one of these plans, the cost associated with chiropractic services is considered a covered expense, subject to the plan's terms and conditions, such as deductibles, copayments, and coinsurance. The coverage for chiropractic care typically includes services aimed at addressing musculoskeletal issues and improving overall spinal function【170†source】.</t>
+  </si>
+  <si>
+    <t>Contraception methods, including counseling, are covered under the ACME America Inc. Flexible Benefit Plan provided through UnitedHealthcare. This includes various contraceptive methods, but the document does not specifically mention condoms. Typically, contraception coverage focuses on prescription-based methods, such as oral contraceptives, IUDs, and implants, among others.
+For precise information on whether condoms are covered as part of the contraception benefits, it's recommended to review your specific plan documents or contact UnitedHealthcare directly. Health plans can vary in terms of what specific contraceptive supplies and services they cover, and some may include over-the-counter options like condoms under their preventive care services【174†source】.</t>
+  </si>
+  <si>
+    <t>Root canal treatments fall under the category of dental services, and while the document provides comprehensive information on various health benefits, it does not specifically detail dental procedure coverage, such as root canals, under the UnitedHealthcare plans offered by ACME America Inc. Dental coverage typically includes preventive services, basic services, and major services, with root canal treatments usually categorized under basic or major services depending on the plan.
+For precise information on whether root canal treatments are covered, including any copayments, coinsurance, or deductibles, you should refer to the specific dental plan documents or contact UnitedHealthcare's dental insurance division directly. Coverage can vary based on the plan you are enrolled in, and some plans may require pre-authorization for certain dental procedures【190†source】.</t>
+  </si>
+  <si>
+    <t>The document does not specifically mention coverage for scooters under the ACME America Inc. Flexible Benefit Plan provided through UnitedHealthcare. Typically, coverage for items like scooters would fall under the category of Durable Medical Equipment (DME), which includes a range of medical equipment prescribed by a healthcare provider for use in a patient's home.
+Coverage for DME, if provided, would be subject to the plan's terms and conditions, including deductibles, copayments, coinsurance, and any specific limitations or requirements such as medical necessity and prior authorization. For detailed information about coverage for scooters as DME, including how to access these services and any associated costs, it's recommended to review your plan documents or contact UnitedHealthcare directly. This will ensure you have accurate and up-to-date information specific to your plan and healthcare needs【194†source】.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan, through UnitedHealthcare, provides coverage for emergency services incurred outside the United States, ensuring that members have access to necessary medical care even when traveling abroad. The plan distinguishes between emergency and non-emergency services received outside the U.S.:
+- **Emergency Services**: Covered globally, ensuring members receive necessary medical attention during urgent situations while abroad. The plan is designed to offer support and coverage for unexpected medical emergencies that require immediate care.
+- **Non-Emergency Services (Non-US)**: For services that are not deemed emergencies, the coverage details and the process for obtaining care might differ from those for emergency services. Members are encouraged to understand the specifics of how non-emergency medical care is covered when outside the U.S., including any requirements for pre-authorization or documentation.
+For exact details on how the plan covers medical expenses incurred abroad, including the reimbursement process, coverage limits, and how to submit claims for medical care received outside the U.S., members should refer to the plan documents or contact UnitedHealthcare directly. This ensures clarity on coverage extents and member responsibilities when accessing medical care internationall</t>
+  </si>
+  <si>
+    <t>The document provides coverage details for both vasectomies and abortions under the ACME America Inc. Flexible Benefit Plan provided through UnitedHealthcare:
+- **Vasectomies**: They are included as a covered health service, meaning the plan provides coverage for vasectomy procedures, subject to the plan's terms and conditions such as deductibles, copayments, and coinsurance. This is part of the plan's comprehensive approach to family planning and reproductive health services【202†source】.
+- **Abortions**: Coverage for abortion services is not explicitly mentioned in the visible sections of the document. Coverage for such services typically depends on the specifics of the health plan, including any applicable laws and regulations that may affect the availability of coverage for abortion services. 
+For detailed information about coverage for abortion services, including any limitations, exclusions, or conditions for coverage, it's recommended to review your specific plan documents or contact UnitedHealthcare directly. This will ensure you have accurate and up-to-date information regarding your coverage options and any requirements or procedures for accessing covered services【206†source】.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan provides coverage for medically necessary treatment of gender dysphoria, including both surgical and non-surgical treatments, under certain conditions. Coverage includes a range of procedures such as bilateral mastectomy or breast reduction, various forms of genital surgery, and facial surgery, among others. These treatments are subject to UnitedHealthcare Medical Guidelines, excluding facial surgeries. To be eligible, documentation from qualified health professionals experienced in treating gender dysphoria is required, detailing that the individual meets specific criteria, including persistent, well-documented gender dysphoria, capacity for informed decision-making, age requirements, and controlled medical or mental health concerns. Additionally, for genital surgery, criteria include at least 12 months of successful continuous full-time real-life experience in the desired gender and 12 months of continuous cross-sex hormone therapy, unless medically contraindicated</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan provides coverage for hearing aids. This includes the device, initial fitting, and necessary adjustments within the first three months of use. The plan covers up to a maximum of $5,000 per ear, every 36 months, for adults and children【20:4†source】.</t>
+  </si>
+  <si>
+    <t>Yes, the ACME America Inc. Flexible Benefit Plan covers services for substance-related and addictive disorders, including fentanyl abuse. This encompasses a range of treatments such as diagnostic evaluations, assessment and treatment, referral services, medication management, individual family and group therapy, crisis intervention, detoxification (sub-acute/non-medical), partial hospitalization/day treatment, residential treatment facility services, and intensive outpatient treatment【46:0†source】.</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers major diagnostic services received on an outpatient basis at a hospital or alternate facility, which includes MRI scans. However, prior authorization is required for MRI scans among other diagnostic services like CT, PET scans, nuclear medicine, including nuclear cardiology, and sleep studies. This means that you will need to obtain approval before scheduling a knee MRI to ensure coverage under the plan</t>
+  </si>
+  <si>
+    <t>The ACME America Inc. Flexible Benefit Plan covers outpatient rehabilitation services for speech therapy, which includes treatment for disorders of speech, language, voice communication, and auditory processing resulting from conditions such as injury, stroke, cancer, congenital anomaly, autism spectrum, and/or development delay. Stuttering, when associated with developmental delay disorder, is also a covered diagnosis under speech therapy. Moreover, therapies related to developmental delay are considered a Covered Health Service, provided services are rendered by a licensed provider【82:1†source】.
+The plan also offers benefits for habilitative services, which are medically necessary skilled healthcare services that help a person keep, learn, or improve skills and functioning for daily living. These services are covered when they are part of a prescribed plan of treatment or maintenance program that is medically necessary to maintain a covered person's current condition or to prevent or slow further decline. The treatment must be administered by a licensed speech-language pathologist, licensed audiologist, licensed occupational therapist, licensed physical therapist, or physician. Additionally, the initial or continued treatment must be proven and not experimental, investigational, or unproven. Benefits for durable medical equipment and prosthetic devices used as a component of habilitative services are described under Durable Medical Equipment and Prosthetic Devices. Benefits are provided for habilitative services for covered persons with a disabling condition when specific conditions are met【82:1†source】.</t>
+  </si>
+  <si>
+    <t>The ACME UnitedHealthcare Medical Plans cover cancer chemotherapy and intravenous infusion therapy as part of their outpatient surgery diagnostic and therapeutic services. This includes coverage for various treatments and services received on an outpatient basis at a hospital or alternate facility. The plan specifies that chemotherapy for cancer treatment, as well as other diagnostic tests and therapeutic treatments, are included as covered health services【6:4†source】.
+Additionally, coverage is available for wigs prescribed by a physician when the hair loss is the result of a medical condition, such as chemotherapy and radiation treatment for cancer. The benefit for wigs is limited to a maximum of $500 of billed charges per diagnosis, with network deductibles and coinsurance applying to a non-network provider when a network provider is not available【6:5†source】.
+For detailed information on coverage, including specific treatments and any potential out-of-pocket costs, it's advisable to refer directly to the plan documentation or contact the plan provider.</t>
+  </si>
+  <si>
+    <t>Dolphin therapy for autism is specifically listed under the exclusions for Autism Spectrum Disorder treatments within the ACME UnitedHealthcare Medical Plans. It is categorized as one of the therapies and modalities that are not covered health services, alongside other excluded treatments such as cleansing therapy, ECT therapy, floortime approach/therapy, music therapy, and relationship development intervention (RDI) Therefore, dolphin therapy for autism is not covered under these plans.</t>
+  </si>
+  <si>
+    <t>The ACME UnitedHealthcare Medical Plans do not cover medical marijuana. It's specifically listed under the plan exclusions for drugs, meaning expenses for medical marijuana are not eligible for reimbursement under these plans</t>
+  </si>
+  <si>
+    <t>The ACME UnitedHealthcare Medical Plans do cover mental health services, which might include treatment for addiction or compulsive behaviors like gambling. However, the specific coverage details for gambling addiction treatment would depend on the plan's provisions for mental health benefits and whether such treatment falls under covered health services【6:5†source】. It would be wise to consult directly with the plan for more detailed information on coverage for addiction treatment services.</t>
+  </si>
+  <si>
+    <t>Both cranial bands and orthotics are covered under the ACME UnitedHealthcare Medical Plans:
+- **Cranial Band/Helmet**: Coverage is provided for cranial bands/helmets, which are often prescribed for conditions like plagiocephaly (flat head syndrome) in infants. This indicates that if a cranial band is medically necessary and prescribed by a doctor, it is included as a covered health service【6:5†source】.
+- **Orthotics**: Orthotic devices are also covered under the plan. These devices are typically used to support, align, prevent, or correct deformities, or to improve the function of movable parts of the body. Given your mention of diabetes, it's common for orthotics to be used to support foot health, which can be a concern for individuals with diabetes【6:5†source】.
+For both types of devices, coverage details, such as deductibles and co-insurance rates, may apply. It's recommended to review your plan details or contact the plan provider to understand the specific coverage conditions and any out-of-pocket costs you might incur.</t>
+  </si>
+  <si>
+    <t>Liposuction is listed under the Plan Exclusions for the ACME UnitedHealthcare Medical Plans, specifically under the category of physical appearance. This indicates that liposuction, as a procedure primarily considered for cosmetic purposes, is not covered</t>
+  </si>
+  <si>
+    <t>Bone marrow donation expenses are covered under the ACME UnitedHealthcare Medical Plans. This includes coverage for the costs associated with the donation process, such as the necessary medical procedures to harvest and transplant bone marrow</t>
+  </si>
+  <si>
+    <t>Contact lenses are covered under the ACME UnitedHealthcare Medical Plans. They fall within the vision benefits, where an annual allowance is provided for contact lenses in lieu of glasses. This coverage typically includes the cost of the contact lenses up to a specified allowance amount【52:0†source】.</t>
+  </si>
+  <si>
+    <t>Blood storage, specifically for autologous (self-donated) blood, is covered under the ACME UnitedHealthcare Medical Plans. However, the document doesn't specify the exact duration for which blood storage is covered. Coverage for blood storage is likely subject to the terms and conditions outlined in the plan, which may include limitations or specific criteria for eligibility【56:0†source】.
+For detailed information regarding the duration of coverage for blood storage, it's recommended to consult directly with the plan provider or refer to the specific plan documentation.</t>
+  </si>
+  <si>
+    <t>When you receive a bill from your provider, the ACME United Flexible Benefit Plan outlines a few steps to handle it:
+1. **Review the Bill:** Check if the services listed on the bill match the care you received. Make sure that your insurance information is correct and that the bill reflects any payments or insurance adjustments.
+2. **Compare with Explanation of Benefits (EOB):** You should receive an Explanation of Benefits (EOB) from UnitedHealthcare, which details what your insurance plan paid and what you owe. Compare the EOB to the provider's bill to ensure they align.
+3. **Contact Your Provider:** If there's a discrepancy between the bill and the EOB, or if your insurance payment hasn't been applied, contact your provider's billing department to resolve the issue.
+4. **File a Claim if Necessary:** If your provider has not submitted a claim to UnitedHealthcare or if you have received services from an out-of-network provider, you may need to submit a claim yourself. For out-of-network services, you have one year from the date of service to submit the claim【22:8†source】.
+5. **Payment:** If everything is in order and the bill matches the EOB, proceed to pay the amount you owe directly to your provider. 
+If you're unsure about any charges or need assistance, you can also contact UnitedHealthcare directly for help with understanding your bill or filing a claim. Always keep copies of all documents, bills, and correspondence related to your healthcare services for your records.</t>
+  </si>
+  <si>
+    <t>The timeframe for receiving approval for a service requiring prior authorization under the ACME United Flexible Benefit Plan with UnitedHealthcare varies based on the type of claim and the urgency of the medical service needed. The process and timelines are designed to ensure that you receive timely information to proceed with the recommended medical care. Here's a detailed breakdown of the process:
+### 1. **Pre-Service Claims:**
+These are claims for services that require approval before treatment can commence. For these types of claims:
+- **Initial Notification:** UnitedHealthcare must provide you with written notice of the claim decision **within 15 days** of receipt of the claim, assuming the claim was submitted with all necessary information.
+- **Request for Additional Information:** If UnitedHealthcare determines that additional information is needed to process your claim, they will notify you within 15 days after the claim was received. They may request a one-time extension of no longer than 15 days to give you time to provide the additional required information.
+- **Final Decision:** After receiving the additional required information, UnitedHealthcare has up to 15 days to make a final decision on your claim and notify you of the outcome.
+### 2. **Urgent Care Claims:**
+For services that are considered urgent, where a delay could seriously jeopardize the patient's life, health, or ability to regain maximum function:
+- **Rapid Response:** UnitedHealthcare is required to provide a benefit determination (approval or denial) **within 72 hours** after receiving all necessary information, taking into account the seriousness of the patient's condition.
+### Important Considerations:
+- **Timely Submission:** To avoid delays in the approval process, ensure that your healthcare provider submits the prior authorization request with all the necessary documentation and information right from the start.
+- **Communication:** Keep in close communication with both your healthcare provider and UnitedHealthcare to track the status of your prior authorization request and provide any additional information if requested.
+- **Understand Your Plan:** Familiarize yourself with the specific services that require prior authorization under your plan. This information can typically be found in your plan documents or by contacting UnitedHealthcare directly.
+### What to Do If You Need Help:
+- **Customer Service:** If you have questions about the status of your prior authorization request or need assistance, contact UnitedHealthcare's customer service. The contact information can usually be found on your insurance ID card.
+- **Plan Documents:** Review your Summary Plan Description (SPD) and other plan documents for detailed information on the prior authorization process, including timelines and requirements.
+By understanding these steps and timelines, you can better navigate the prior authorization process and ensure that you receive the necessary approvals for your medical services in a timely manner.</t>
+  </si>
+  <si>
+    <t>The repair or recementing of crowns is covered under the Basic Services category of the ACME United SPD. These services are covered at 80% of the Preferred Dental Program (PDP) rate for network providers or Reasonable &amp; Customary (R&amp;C) rate for non-network providers, after the deductible has been met. This coverage is part of the combined annual maximum of $2,500 for Basic and Major Services.</t>
+  </si>
+  <si>
+    <t>The maximum life insurance coverage you can get under the ACME United SPD is up to five times your annual benefits compensation, with a maximum benefit of $1,500,000. This coverage is available through the Life Insurance – After-Tax Options, allowing you to choose the amount of coverage that best meets your needs, subject to the plan's terms and conditions .</t>
+  </si>
+  <si>
+    <t>Your accident insurance deduction under the ACME United plan is done using pre-tax dollars. This pre-tax option allows you to pay for your Accidental Death &amp; Dismemberment (AD&amp;D) coverage with pre-tax dollars, similar to certain other benefits offered within the plan</t>
+  </si>
+  <si>
+    <t>query_num</t>
+  </si>
+  <si>
     <t>query</t>
-  </si>
-  <si>
-    <t>query_num</t>
   </si>
 </sst>
 </file>
@@ -1110,16 +1576,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1476,192 +1939,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1675,674 +2057,674 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2355,32 +2737,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2389,38 +2771,1398 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>181</v>
+      <c r="C71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
